--- a/data/mall-cloud-alibaba/member-server_structure.xlsx
+++ b/data/mall-cloud-alibaba/member-server_structure.xlsx
@@ -597,10 +597,31 @@
     <t>umsMemberService</t>
   </si>
   <si>
+    <t>memberService</t>
+  </si>
+  <si>
     <t>memberBrandAttentionRepository</t>
   </si>
   <si>
-    <t>memberService</t>
+    <t>id</t>
+  </si>
+  <si>
+    <t>memberNickname</t>
+  </si>
+  <si>
+    <t>brandName</t>
+  </si>
+  <si>
+    <t>memberIcon</t>
+  </si>
+  <si>
+    <t>brandId</t>
+  </si>
+  <si>
+    <t>memberId</t>
+  </si>
+  <si>
+    <t>brandCity</t>
   </si>
   <si>
     <t>brandLogo</t>
@@ -609,27 +630,6 @@
     <t>createTime</t>
   </si>
   <si>
-    <t>brandName</t>
-  </si>
-  <si>
-    <t>memberId</t>
-  </si>
-  <si>
-    <t>memberIcon</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>brandId</t>
-  </si>
-  <si>
-    <t>brandCity</t>
-  </si>
-  <si>
-    <t>memberNickname</t>
-  </si>
-  <si>
     <t>memberReadHistoryRepository</t>
   </si>
   <si>
@@ -645,31 +645,49 @@
     <t>umsMember</t>
   </si>
   <si>
+    <t>productId</t>
+  </si>
+  <si>
+    <t>productPrice</t>
+  </si>
+  <si>
+    <t>productPic</t>
+  </si>
+  <si>
+    <t>productSubTitle</t>
+  </si>
+  <si>
     <t>productName</t>
   </si>
   <si>
-    <t>productPrice</t>
-  </si>
-  <si>
-    <t>productSubTitle</t>
-  </si>
-  <si>
-    <t>productId</t>
-  </si>
-  <si>
-    <t>productPic</t>
-  </si>
-  <si>
     <t>memberCouponService</t>
   </si>
   <si>
+    <t>productCollectionRepository</t>
+  </si>
+  <si>
     <t>integrationConsumeSettingMapper</t>
   </si>
   <si>
     <t>com.mtcarpenter.mall.mapper.UmsIntegrationConsumeSettingMapper</t>
   </si>
   <si>
-    <t>productCollectionRepository</t>
+    <t>jwtTokenUtil</t>
+  </si>
+  <si>
+    <t>com.mtcarpenter.mall.security.util.JwtTokenUtil</t>
+  </si>
+  <si>
+    <t>memberLevelMapper</t>
+  </si>
+  <si>
+    <t>com.mtcarpenter.mall.mapper.UmsMemberLevelMapper</t>
+  </si>
+  <si>
+    <t>passwordEncoder</t>
+  </si>
+  <si>
+    <t>org.springframework.security.crypto.password.PasswordEncoder</t>
   </si>
   <si>
     <t>LOGGER</t>
@@ -678,36 +696,18 @@
     <t>org.slf4j.Logger</t>
   </si>
   <si>
+    <t>memberMapper</t>
+  </si>
+  <si>
+    <t>com.mtcarpenter.mall.mapper.UmsMemberMapper</t>
+  </si>
+  <si>
+    <t>REDIS_KEY_PREFIX_AUTH_CODE</t>
+  </si>
+  <si>
     <t>memberCacheService</t>
   </si>
   <si>
-    <t>memberLevelMapper</t>
-  </si>
-  <si>
-    <t>com.mtcarpenter.mall.mapper.UmsMemberLevelMapper</t>
-  </si>
-  <si>
-    <t>jwtTokenUtil</t>
-  </si>
-  <si>
-    <t>com.mtcarpenter.mall.security.util.JwtTokenUtil</t>
-  </si>
-  <si>
-    <t>REDIS_KEY_PREFIX_AUTH_CODE</t>
-  </si>
-  <si>
-    <t>passwordEncoder</t>
-  </si>
-  <si>
-    <t>org.springframework.security.crypto.password.PasswordEncoder</t>
-  </si>
-  <si>
-    <t>memberMapper</t>
-  </si>
-  <si>
-    <t>com.mtcarpenter.mall.mapper.UmsMemberMapper</t>
-  </si>
-  <si>
     <t>AUTH_CODE_EXPIRE_SECONDS</t>
   </si>
   <si>
@@ -720,37 +720,37 @@
     <t>com.mtcarpenter.mall.mapper.UmsMemberReceiveAddressMapper</t>
   </si>
   <si>
+    <t>tokenHead</t>
+  </si>
+  <si>
     <t>tokenHeader</t>
   </si>
   <si>
-    <t>tokenHead</t>
-  </si>
-  <si>
     <t>memberCollectionService</t>
   </si>
   <si>
     <t>memberReceiveAddressService</t>
   </si>
   <si>
+    <t>redisService</t>
+  </si>
+  <si>
+    <t>com.mtcarpenter.mall.security.service.RedisService</t>
+  </si>
+  <si>
+    <t>REDIS_KEY_MEMBER</t>
+  </si>
+  <si>
+    <t>REDIS_EXPIRE_AUTH_CODE</t>
+  </si>
+  <si>
+    <t>REDIS_DATABASE</t>
+  </si>
+  <si>
+    <t>REDIS_KEY_AUTH_CODE</t>
+  </si>
+  <si>
     <t>REDIS_EXPIRE</t>
-  </si>
-  <si>
-    <t>REDIS_EXPIRE_AUTH_CODE</t>
-  </si>
-  <si>
-    <t>REDIS_KEY_AUTH_CODE</t>
-  </si>
-  <si>
-    <t>REDIS_KEY_MEMBER</t>
-  </si>
-  <si>
-    <t>REDIS_DATABASE</t>
-  </si>
-  <si>
-    <t>redisService</t>
-  </si>
-  <si>
-    <t>com.mtcarpenter.mall.security.service.RedisService</t>
   </si>
   <si>
     <t>Source Class Name</t>
@@ -11595,7 +11595,7 @@
         <v>134</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>129</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4">
@@ -11609,7 +11609,7 @@
         <v>134</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5">
@@ -11637,7 +11637,7 @@
         <v>134</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>60</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
@@ -11665,7 +11665,7 @@
         <v>134</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>42</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
@@ -11679,7 +11679,7 @@
         <v>134</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>14</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10">
@@ -11693,7 +11693,7 @@
         <v>134</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>14</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11">
@@ -11707,7 +11707,7 @@
         <v>134</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>42</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12">
@@ -11735,7 +11735,7 @@
         <v>134</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>14</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14">
@@ -11743,13 +11743,13 @@
         <v>67</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>134</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>144</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15">
@@ -11757,13 +11757,13 @@
         <v>67</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>134</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>115</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16">
@@ -11771,7 +11771,7 @@
         <v>74</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>134</v>
@@ -11827,13 +11827,13 @@
         <v>98</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>134</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>60</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21">
@@ -11841,13 +11841,13 @@
         <v>98</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>134</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>14</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22">
@@ -11855,7 +11855,7 @@
         <v>98</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>134</v>
@@ -11903,7 +11903,7 @@
         <v>134</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>42</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26">
@@ -11911,13 +11911,13 @@
         <v>98</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>134</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>14</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27">
@@ -11925,13 +11925,13 @@
         <v>98</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>134</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>42</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28">
@@ -11939,7 +11939,7 @@
         <v>98</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>134</v>
@@ -11953,7 +11953,7 @@
         <v>98</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>134</v>
@@ -11981,7 +11981,7 @@
         <v>175</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>134</v>
@@ -11995,13 +11995,13 @@
         <v>127</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>134</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>214</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33">
@@ -12009,13 +12009,13 @@
         <v>127</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>134</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34">
@@ -12023,13 +12023,13 @@
         <v>127</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>134</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>110</v>
+        <v>215</v>
       </c>
     </row>
     <row r="35">
@@ -12037,13 +12037,13 @@
         <v>64</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>134</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>14</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36">
@@ -12051,7 +12051,7 @@
         <v>64</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>134</v>
@@ -12065,7 +12065,7 @@
         <v>64</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C37" t="s" s="0">
         <v>134</v>
@@ -12079,13 +12079,13 @@
         <v>64</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>134</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>42</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39">
@@ -12093,13 +12093,13 @@
         <v>64</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>134</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>14</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40">
@@ -12107,7 +12107,7 @@
         <v>64</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>134</v>
@@ -12121,13 +12121,13 @@
         <v>64</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C41" t="s" s="0">
         <v>134</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>42</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42">
@@ -12135,7 +12135,7 @@
         <v>64</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>134</v>
@@ -12149,7 +12149,7 @@
         <v>64</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>134</v>
@@ -12163,13 +12163,13 @@
         <v>64</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>134</v>
       </c>
       <c r="D44" t="s" s="0">
-        <v>60</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45">
@@ -12197,7 +12197,7 @@
         <v>134</v>
       </c>
       <c r="D46" t="s" s="0">
-        <v>80</v>
+        <v>219</v>
       </c>
     </row>
     <row r="47">
@@ -12205,13 +12205,13 @@
         <v>147</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>134</v>
       </c>
       <c r="D47" t="s" s="0">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="48">
@@ -12219,13 +12219,13 @@
         <v>147</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>134</v>
       </c>
       <c r="D48" t="s" s="0">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="49">
@@ -12233,13 +12233,13 @@
         <v>147</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>134</v>
       </c>
       <c r="D49" t="s" s="0">
-        <v>14</v>
+        <v>225</v>
       </c>
     </row>
     <row r="50">
@@ -12247,13 +12247,13 @@
         <v>147</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C50" t="s" s="0">
         <v>134</v>
       </c>
       <c r="D50" t="s" s="0">
-        <v>225</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51">
@@ -12261,13 +12261,13 @@
         <v>147</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>134</v>
       </c>
       <c r="D51" t="s" s="0">
-        <v>227</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52">
@@ -12289,7 +12289,7 @@
         <v>150</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C53" t="s" s="0">
         <v>134</v>
@@ -12317,7 +12317,7 @@
         <v>162</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C55" t="s" s="0">
         <v>134</v>
@@ -12345,13 +12345,13 @@
         <v>179</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>232</v>
+        <v>191</v>
       </c>
       <c r="C57" t="s" s="0">
         <v>134</v>
       </c>
       <c r="D57" t="s" s="0">
-        <v>14</v>
+        <v>115</v>
       </c>
     </row>
     <row r="58">
@@ -12359,13 +12359,13 @@
         <v>179</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>192</v>
+        <v>232</v>
       </c>
       <c r="C58" t="s" s="0">
         <v>134</v>
       </c>
       <c r="D58" t="s" s="0">
-        <v>115</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59">
@@ -12421,7 +12421,7 @@
         <v>134</v>
       </c>
       <c r="D62" t="s" s="0">
-        <v>42</v>
+        <v>237</v>
       </c>
     </row>
     <row r="63">
@@ -12429,13 +12429,13 @@
         <v>167</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C63" t="s" s="0">
         <v>134</v>
       </c>
       <c r="D63" t="s" s="0">
-        <v>42</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64">
@@ -12443,13 +12443,13 @@
         <v>167</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C64" t="s" s="0">
         <v>134</v>
       </c>
       <c r="D64" t="s" s="0">
-        <v>14</v>
+        <v>42</v>
       </c>
     </row>
     <row r="65">
@@ -12457,13 +12457,13 @@
         <v>167</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="C65" t="s" s="0">
         <v>134</v>
       </c>
       <c r="D65" t="s" s="0">
-        <v>14</v>
+        <v>225</v>
       </c>
     </row>
     <row r="66">
@@ -12491,7 +12491,7 @@
         <v>134</v>
       </c>
       <c r="D67" t="s" s="0">
-        <v>242</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68">
@@ -12499,13 +12499,13 @@
         <v>167</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="C68" t="s" s="0">
         <v>134</v>
       </c>
       <c r="D68" t="s" s="0">
-        <v>227</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
